--- a/libs/一体化温度变送器语义库.xlsx
+++ b/libs/一体化温度变送器语义库.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="511" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="变送器部分" sheetId="2" r:id="rId1"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="500">
   <si>
     <t>元器件部位</t>
   </si>
@@ -1137,19 +1137,25 @@
     <t>一体化温度变送器隔爆证书</t>
   </si>
   <si>
-    <t>需一体化温度变送器与变送器NEPSI选项为NF2同时生效</t>
+    <t>NEPSI Certification</t>
+  </si>
+  <si>
+    <t>Y；带</t>
   </si>
   <si>
     <t>/N1</t>
   </si>
   <si>
+    <t>需一体化温度变送器与变送器NEPSI选项为NF2同时生效，且实际参数名称可能为英语</t>
+  </si>
+  <si>
     <t>一体化温度变送器本安证书</t>
   </si>
   <si>
-    <t>需一体化温度变送器与变送器NEPSI选项为NS2或NS25同时生效</t>
-  </si>
-  <si>
     <t>/N2</t>
+  </si>
+  <si>
+    <t>需一体化温度变送器与变送器NEPSI选项为NS2或NS25同时生效，且实际参数名称可能为英语</t>
   </si>
   <si>
     <t>接线盒</t>
@@ -1429,10 +1435,13 @@
     <t>/A3</t>
   </si>
   <si>
+    <t>参数名称可能为英语，需要结合实际进行判断</t>
+  </si>
+  <si>
     <t>外保护套管材质报告</t>
   </si>
   <si>
-    <t>材质报告；材质证明</t>
+    <t>材质报告；材质证明；Material Certificatio</t>
   </si>
   <si>
     <t>/A4</t>
@@ -1790,6 +1799,9 @@
   </si>
   <si>
     <t>过程连接（螺纹）</t>
+  </si>
+  <si>
+    <t>Y;带</t>
   </si>
   <si>
     <t>法兰安装钢管保护管</t>
@@ -2585,7 +2597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2676,20 +2688,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2777,6 +2786,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3039,8 +3055,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:E34"/>
     </sheetView>
@@ -3147,7 +3163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="13"/>
       <c r="B5" s="17"/>
       <c r="C5" s="22"/>
@@ -3184,7 +3200,7 @@
       <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3204,7 +3220,7 @@
       <c r="G7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
@@ -3214,16 +3230,15 @@
       <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
         <v>36</v>
       </c>
@@ -3235,18 +3250,17 @@
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="158.4" spans="1:8">
+    <row r="10" ht="129.6" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="12" t="s">
         <v>41</v>
@@ -3270,7 +3284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="158.4" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="13"/>
       <c r="B11" s="17"/>
       <c r="C11" s="22"/>
@@ -3287,7 +3301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="129.6" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="13"/>
       <c r="B12" s="12" t="s">
         <v>49</v>
@@ -3295,7 +3309,7 @@
       <c r="C12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3308,7 +3322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" ht="129.6" spans="1:7">
+    <row r="13" ht="43.2" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="21"/>
@@ -3325,7 +3339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="129.6" spans="1:7">
+    <row r="14" ht="28.8" spans="1:7">
       <c r="A14" s="13"/>
       <c r="B14" s="17"/>
       <c r="C14" s="22"/>
@@ -3342,7 +3356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="100.8" spans="1:7">
+    <row r="15" ht="28.8" spans="1:7">
       <c r="A15" s="13"/>
       <c r="B15" s="12" t="s">
         <v>59</v>
@@ -3363,7 +3377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="100.8" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="13"/>
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
@@ -3401,7 +3415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" ht="43.2" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="21"/>
@@ -3418,7 +3432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" ht="43.2" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="21"/>
@@ -3435,7 +3449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" ht="43.2" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="21"/>
@@ -3452,7 +3466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="22"/>
@@ -3479,7 +3493,7 @@
       <c r="C22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -3497,7 +3511,7 @@
       <c r="C23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -3511,7 +3525,7 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -3525,7 +3539,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -3539,7 +3553,7 @@
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -3553,7 +3567,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -3571,7 +3585,7 @@
       <c r="C28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="21"/>
@@ -3585,7 +3599,7 @@
       <c r="C29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="35" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="21"/>
@@ -3597,7 +3611,7 @@
       <c r="A30" s="13"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="35" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="22"/>
@@ -3631,7 +3645,7 @@
       <c r="C32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="35" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3641,11 +3655,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" ht="72" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>120</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -3654,12 +3668,11 @@
       <c r="G33" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" ht="72" spans="1:9">
+    <row r="34" spans="1:9">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3670,7 +3683,6 @@
       <c r="G34" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
         <v>126</v>
       </c>
@@ -3721,8 +3733,8 @@
   <sheetPr/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3771,7 +3783,7 @@
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -3796,7 +3808,7 @@
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="11" t="s">
         <v>133</v>
       </c>
@@ -3819,7 +3831,7 @@
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -3844,7 +3856,7 @@
       <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="11" t="s">
         <v>142</v>
       </c>
@@ -3863,11 +3875,11 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="172.8" spans="1:9">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -3888,11 +3900,11 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="172.8" spans="1:9">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="4" t="s">
         <v>150</v>
@@ -3909,11 +3921,11 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" customFormat="1" ht="172.8" spans="1:9">
+    <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>152</v>
@@ -3930,11 +3942,11 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="172.8" spans="1:9">
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
         <v>155</v>
@@ -3951,11 +3963,11 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" customFormat="1" ht="172.8" spans="1:9">
+    <row r="10" customFormat="1" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
         <v>158</v>
@@ -3972,11 +3984,11 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" customFormat="1" ht="172.8" spans="1:9">
+    <row r="11" customFormat="1" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
         <v>161</v>
@@ -3993,11 +4005,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" customFormat="1" ht="172.8" spans="1:9">
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="4" t="s">
         <v>164</v>
@@ -4016,11 +4028,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="158.4" spans="1:9">
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4041,11 +4053,11 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="158.4" spans="1:9">
+    <row r="14" customFormat="1" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
         <v>173</v>
@@ -4062,11 +4074,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="158.4" spans="1:9">
+    <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
         <v>176</v>
@@ -4083,11 +4095,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="158.4" spans="1:9">
+    <row r="16" customFormat="1" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="4" t="s">
         <v>179</v>
@@ -4104,11 +4116,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="158.4" spans="1:9">
+    <row r="17" customFormat="1" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="4" t="s">
         <v>182</v>
@@ -4125,11 +4137,11 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="158.4" spans="1:9">
+    <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
         <v>185</v>
@@ -4146,11 +4158,11 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="158.4" spans="1:9">
+    <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
         <v>187</v>
@@ -4167,11 +4179,11 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="158.4" spans="1:9">
+    <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="4" t="s">
         <v>164</v>
@@ -4194,7 +4206,7 @@
       <c r="A21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4221,7 +4233,7 @@
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="20" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -4246,7 +4258,7 @@
       <c r="A23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
         <v>200</v>
@@ -4263,11 +4275,11 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" customFormat="1" ht="201.6" spans="1:9">
+    <row r="24" customFormat="1" ht="28.8" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="4" t="s">
         <v>202</v>
@@ -4284,11 +4296,11 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" customFormat="1" ht="201.6" spans="1:9">
+    <row r="25" customFormat="1" ht="28.8" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
         <v>75</v>
@@ -4305,11 +4317,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" customFormat="1" ht="201.6" spans="1:9">
+    <row r="26" customFormat="1" ht="28.8" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
         <v>78</v>
@@ -4326,11 +4338,11 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" customFormat="1" ht="201.6" spans="1:9">
+    <row r="27" customFormat="1" ht="28.8" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="4" t="s">
         <v>206</v>
@@ -4347,11 +4359,11 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" customFormat="1" ht="201.6" spans="1:9">
+    <row r="28" customFormat="1" ht="28.8" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="4" t="s">
         <v>63</v>
@@ -4368,11 +4380,11 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" customFormat="1" ht="201.6" spans="1:9">
+    <row r="29" customFormat="1" ht="28.8" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="4" t="s">
         <v>141</v>
@@ -4389,11 +4401,11 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" customFormat="1" ht="201.6" spans="1:9">
+    <row r="30" customFormat="1" ht="28.8" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="4" t="s">
         <v>210</v>
@@ -4410,11 +4422,11 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" customFormat="1" ht="201.6" spans="1:9">
+    <row r="31" customFormat="1" ht="28.8" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="4" t="s">
         <v>27</v>
@@ -4431,11 +4443,11 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" customFormat="1" ht="201.6" spans="1:9">
+    <row r="32" customFormat="1" ht="28.8" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="4" t="s">
         <v>164</v>
@@ -4446,7 +4458,7 @@
       <c r="F32" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>166</v>
       </c>
       <c r="H32" s="3"/>
@@ -4458,16 +4470,16 @@
       <c r="A33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="36" t="s">
         <v>217</v>
       </c>
       <c r="F33" s="5">
@@ -4485,7 +4497,7 @@
       <c r="A34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="4" t="s">
         <v>220</v>
@@ -4504,11 +4516,11 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" customFormat="1" ht="86.4" spans="1:9">
+    <row r="35" customFormat="1" ht="72" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="4" t="s">
         <v>224</v>
@@ -4525,11 +4537,11 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" customFormat="1" ht="86.4" spans="1:9">
+    <row r="36" customFormat="1" ht="43.2" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="4" t="s">
         <v>227</v>
@@ -4546,11 +4558,11 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" customFormat="1" ht="86.4" spans="1:9">
+    <row r="37" customFormat="1" ht="43.2" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="4" t="s">
         <v>230</v>
@@ -4567,11 +4579,11 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" customFormat="1" ht="86.4" spans="1:9">
+    <row r="38" customFormat="1" ht="28.8" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C38" s="20" t="s">
@@ -4592,11 +4604,11 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" customFormat="1" ht="86.4" spans="1:9">
+    <row r="39" customFormat="1" ht="28.8" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="4" t="s">
         <v>237</v>
@@ -4619,7 +4631,7 @@
       <c r="A40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="20" t="s">
         <v>240</v>
       </c>
       <c r="C40" s="20" t="s">
@@ -4642,11 +4654,11 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" customFormat="1" ht="259.2" spans="1:9">
+    <row r="41" customFormat="1" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="4" t="s">
         <v>244</v>
@@ -4663,11 +4675,11 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" customFormat="1" ht="259.2" spans="1:9">
+    <row r="42" customFormat="1" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="4" t="s">
         <v>246</v>
@@ -4684,11 +4696,11 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" customFormat="1" ht="259.2" spans="1:9">
+    <row r="43" customFormat="1" ht="28.8" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="4" t="s">
         <v>248</v>
@@ -4705,11 +4717,11 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" customFormat="1" ht="259.2" spans="1:9">
+    <row r="44" customFormat="1" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="4" t="s">
         <v>250</v>
@@ -4726,11 +4738,11 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" customFormat="1" ht="259.2" spans="1:9">
+    <row r="45" customFormat="1" ht="28.8" spans="1:9">
       <c r="A45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="4" t="s">
         <v>252</v>
@@ -4747,11 +4759,11 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" customFormat="1" ht="259.2" spans="1:9">
+    <row r="46" customFormat="1" ht="43.2" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="4" t="s">
         <v>254</v>
@@ -4768,11 +4780,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" ht="259.2" spans="1:9">
+    <row r="47" ht="72" spans="1:9">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="4" t="s">
         <v>164</v>
@@ -4793,11 +4805,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="115.2" spans="1:9">
+    <row r="48" customFormat="1" ht="43.2" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C48" s="20" t="s">
@@ -4822,50 +4834,56 @@
       <c r="A49" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="50" customFormat="1" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="34" t="s">
-        <v>267</v>
+      <c r="B50" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" customFormat="1" ht="244.8" spans="1:9">
+      <c r="I50" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="129.6" spans="1:9">
       <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>270</v>
+      <c r="B51" s="20" t="s">
+        <v>272</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>221</v>
@@ -4877,96 +4895,96 @@
         <v>44</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" customFormat="1" ht="244.8" spans="1:9">
+    <row r="52" customFormat="1" ht="28.8" spans="1:9">
       <c r="A52" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="17"/>
       <c r="D52" s="22"/>
       <c r="E52" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" customFormat="1" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" customFormat="1" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="17"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="38"/>
+      <c r="C72" s="37"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I54" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B12"/>
@@ -4982,7 +5000,6 @@
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C47"/>
-    <mergeCell ref="C48:C50"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E34:E37"/>
@@ -4999,8 +5016,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E34"/>
+    <sheetView topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5047,95 +5064,95 @@
     </row>
     <row r="2" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="1" ht="158.4" spans="1:9">
+    <row r="3" customFormat="1" ht="43.2" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="1" ht="158.4" spans="1:9">
+    <row r="4" customFormat="1" ht="115.2" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="21"/>
       <c r="D4" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="1" ht="158.4" spans="1:9">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="22"/>
       <c r="D5" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="28.8" spans="1:9">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>244</v>
@@ -5148,13 +5165,13 @@
         <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="28.8" spans="1:9">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="21"/>
@@ -5169,13 +5186,13 @@
         <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="1" ht="28.8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="21"/>
@@ -5190,13 +5207,13 @@
         <v>149</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="28.8" spans="1:9">
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="21"/>
@@ -5211,13 +5228,13 @@
         <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="1" ht="28.8" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="21"/>
@@ -5232,13 +5249,13 @@
         <v>154</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" customFormat="1" ht="54" customHeight="1" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="21"/>
@@ -5253,13 +5270,13 @@
         <v>157</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" customFormat="1" ht="54" customHeight="1" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
@@ -5274,82 +5291,82 @@
         <v>166</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="216" spans="1:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="43.2" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>306</v>
+      <c r="F13" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="216" spans="1:9">
+    <row r="14" customFormat="1" ht="43.2" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>306</v>
-      </c>
       <c r="G14" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="216" spans="1:9">
+    <row r="15" customFormat="1" ht="43.2" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>306</v>
+        <v>314</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="216" spans="1:9">
+    <row r="16" customFormat="1" ht="43.2" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="21"/>
@@ -5357,20 +5374,20 @@
         <v>252</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>306</v>
+        <v>316</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="216" spans="1:9">
+    <row r="17" customFormat="1" ht="43.2" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="21"/>
@@ -5378,102 +5395,102 @@
         <v>248</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>306</v>
+        <v>318</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="216" spans="1:9">
+    <row r="18" customFormat="1" ht="43.2" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>306</v>
+        <v>321</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="216" spans="1:9">
+    <row r="19" customFormat="1" ht="43.2" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>306</v>
+        <v>324</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="216" spans="1:9">
+    <row r="20" customFormat="1" ht="43.2" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>328</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" customFormat="1" ht="216" spans="1:9">
+    <row r="21" customFormat="1" ht="43.2" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" customFormat="1" ht="216" spans="1:9">
+    <row r="22" customFormat="1" ht="43.2" spans="1:9">
       <c r="A22" s="13"/>
       <c r="B22" s="17"/>
       <c r="C22" s="22"/>
@@ -5483,226 +5500,235 @@
       <c r="E22" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>306</v>
+      <c r="F22" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="43.2" spans="1:9">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="9"/>
       <c r="G23" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" customFormat="1" ht="43.2" spans="1:9">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>334</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" customFormat="1" ht="100.8" spans="1:9">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" ht="100.8" spans="1:7">
       <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26" s="42" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:9">
       <c r="A28" s="13"/>
       <c r="B28" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>353</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13"/>
       <c r="G29" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>357</v>
+      </c>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="13"/>
       <c r="G30" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>360</v>
+      </c>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="13"/>
       <c r="G31" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>363</v>
+      </c>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="13"/>
       <c r="G32" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>366</v>
+      </c>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="13"/>
       <c r="G33" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>369</v>
+      </c>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="G34" s="5" t="s">
-        <v>369</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="I34" s="32"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I34" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="B3:B5"/>
@@ -5717,6 +5743,7 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E28:E34"/>
+    <mergeCell ref="I28:I34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5730,8 +5757,8 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5778,87 +5805,87 @@
     </row>
     <row r="2" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="1" ht="158.4" spans="1:9">
+    <row r="3" customFormat="1" ht="43.2" spans="1:9">
       <c r="A3" s="13"/>
       <c r="B3" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="1" ht="158.4" spans="1:9">
+    <row r="4" customFormat="1" ht="115.2" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="21"/>
       <c r="D4" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="1" ht="158.4" spans="1:9">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="17"/>
       <c r="C5" s="22"/>
       <c r="D5" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="28.8" spans="1:9">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>244</v>
@@ -5871,11 +5898,11 @@
         <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="28.8" spans="1:9">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="21"/>
@@ -5890,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -5909,11 +5936,11 @@
         <v>149</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="28.8" spans="1:9">
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="21"/>
@@ -5928,7 +5955,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -5947,7 +5974,7 @@
         <v>154</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -5966,7 +5993,7 @@
         <v>157</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -5985,85 +6012,85 @@
         <v>166</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="216" spans="1:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="43" t="s">
-        <v>380</v>
+      <c r="G13" s="42" t="s">
+        <v>383</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="216" spans="1:9">
+    <row r="14" customFormat="1" spans="1:9">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="43" t="s">
-        <v>383</v>
+      <c r="G14" s="42" t="s">
+        <v>386</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="216" spans="1:9">
+    <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="43" t="s">
-        <v>386</v>
+      <c r="G15" s="42" t="s">
+        <v>389</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="216" spans="1:9">
+    <row r="16" customFormat="1" spans="1:9">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="21"/>
       <c r="D16" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="43" t="s">
-        <v>389</v>
+      <c r="G16" s="42" t="s">
+        <v>392</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="216" spans="1:9">
+    <row r="17" customFormat="1" spans="1:9">
       <c r="A17" s="13"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21"/>
@@ -6071,28 +6098,28 @@
         <v>164</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="43" t="s">
-        <v>330</v>
+      <c r="G17" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="216" spans="1:9">
+    <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="5">
@@ -6101,15 +6128,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="216" spans="1:9">
+    <row r="19" customFormat="1" ht="28.8" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="5">
@@ -6118,15 +6145,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="216" spans="1:9">
+    <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="5">
@@ -6135,7 +6162,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" customFormat="1" ht="216" spans="1:9">
+    <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="13"/>
       <c r="B21" s="17"/>
       <c r="C21" s="22"/>
@@ -6143,7 +6170,7 @@
         <v>164</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="5" t="s">
@@ -6154,220 +6181,220 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="244.8" spans="1:9">
+    <row r="22" customFormat="1" ht="28.8" spans="1:9">
       <c r="A22" s="13"/>
       <c r="B22" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="5">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" customFormat="1" ht="244.8" spans="1:9">
+    <row r="23" customFormat="1" ht="43.2" spans="1:9">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" customFormat="1" ht="244.8" spans="1:9">
+    <row r="24" customFormat="1" ht="28.8" spans="1:9">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="21"/>
       <c r="D24" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" customFormat="1" ht="244.8" spans="1:9">
+    <row r="25" customFormat="1" ht="43.2" spans="1:9">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="5">
         <v>4</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" customFormat="1" ht="244.8" spans="1:9">
+    <row r="26" customFormat="1" ht="43.2" spans="1:9">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="5">
         <v>5</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" customFormat="1" ht="244.8" spans="1:9">
+    <row r="27" customFormat="1" ht="43.2" spans="1:9">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="21"/>
       <c r="D27" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="5">
         <v>6</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" customFormat="1" ht="244.8" spans="1:9">
+    <row r="28" customFormat="1" ht="28.8" spans="1:9">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="21"/>
       <c r="D28" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="5">
         <v>7</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" customFormat="1" ht="244.8" spans="1:9">
+    <row r="29" customFormat="1" ht="28.8" spans="1:9">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="21"/>
       <c r="D29" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="5">
         <v>8</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" customFormat="1" ht="244.8" spans="1:9">
+    <row r="30" customFormat="1" ht="28.8" spans="1:9">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="21"/>
       <c r="D30" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="5">
         <v>9</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" customFormat="1" ht="244.8" spans="1:9">
+    <row r="31" customFormat="1" ht="28.8" spans="1:9">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="21"/>
       <c r="D31" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="5">
         <v>10</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" customFormat="1" ht="244.8" spans="1:9">
+    <row r="32" customFormat="1" ht="28.8" spans="1:9">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="21"/>
       <c r="D32" s="4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="5">
         <v>11</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" customFormat="1" ht="244.8" spans="1:9">
+    <row r="33" customFormat="1" ht="144" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="17"/>
       <c r="C33" s="22"/>
@@ -6380,7 +6407,7 @@
         <v>166</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>257</v>
@@ -6389,16 +6416,16 @@
     <row r="34" customFormat="1" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="5"/>
@@ -6408,40 +6435,40 @@
     <row r="35" customFormat="1" ht="57.6" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="27" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" customFormat="1" ht="100.8" spans="1:9">
       <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F36" s="28"/>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="42" t="s">
         <v>262</v>
       </c>
       <c r="H36" s="3"/>
@@ -6450,85 +6477,85 @@
     <row r="37" customFormat="1" ht="43.2" spans="1:9">
       <c r="A37" s="13"/>
       <c r="B37" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="27" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" customFormat="1" ht="43.2" spans="1:9">
       <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>334</v>
-      </c>
       <c r="E38" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="G38" s="43" t="s">
-        <v>436</v>
+      <c r="G38" s="42" t="s">
+        <v>439</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" customFormat="1" ht="100.8" spans="1:9">
       <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="29"/>
-      <c r="G39" s="43" t="s">
-        <v>436</v>
+      <c r="G39" s="42" t="s">
+        <v>439</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" customFormat="1" ht="28.8" spans="1:9">
       <c r="A40" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -6536,16 +6563,16 @@
     <row r="41" customFormat="1" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="13"/>
       <c r="F41" s="29"/>
       <c r="G41" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -6553,16 +6580,16 @@
     <row r="42" customFormat="1" spans="1:9">
       <c r="A42" s="13"/>
       <c r="B42" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="13"/>
       <c r="F42" s="29"/>
       <c r="G42" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -6570,16 +6597,16 @@
     <row r="43" customFormat="1" spans="1:9">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="13"/>
       <c r="F43" s="29"/>
       <c r="G43" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -6587,16 +6614,16 @@
     <row r="44" customFormat="1" spans="1:9">
       <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="13"/>
       <c r="F44" s="29"/>
       <c r="G44" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -6604,16 +6631,16 @@
     <row r="45" customFormat="1" spans="1:9">
       <c r="A45" s="13"/>
       <c r="B45" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="13"/>
       <c r="F45" s="29"/>
       <c r="G45" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -6621,16 +6648,16 @@
     <row r="46" customFormat="1" spans="1:9">
       <c r="A46" s="17"/>
       <c r="B46" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
       <c r="F46" s="28"/>
       <c r="G46" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -6677,7 +6704,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+      <selection activeCell="E18" sqref="E18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6724,81 +6751,81 @@
     </row>
     <row r="2" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="1" ht="158.4" spans="1:9">
+    <row r="3" customFormat="1" ht="43.2" spans="1:9">
       <c r="A3" s="13"/>
       <c r="B3" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="1" ht="158.4" spans="1:9">
+    <row r="4" customFormat="1" ht="115.2" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="21"/>
       <c r="D4" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="1" ht="158.4" spans="1:9">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="17"/>
       <c r="C5" s="22"/>
       <c r="D5" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="28.8" spans="1:9">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>244</v>
@@ -6811,11 +6838,11 @@
         <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="28.8" spans="1:9">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="21"/>
@@ -6830,7 +6857,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -6849,11 +6876,11 @@
         <v>149</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="28.8" spans="1:9">
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="21"/>
@@ -6868,7 +6895,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -6887,7 +6914,7 @@
         <v>154</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -6906,7 +6933,7 @@
         <v>157</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -6925,23 +6952,23 @@
         <v>166</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="54" customHeight="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F13" s="6">
         <v>50</v>
@@ -6950,61 +6977,61 @@
         <v>262</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" customFormat="1" ht="43.2" spans="1:9">
       <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="6"/>
       <c r="G14" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="1" ht="43.2" spans="1:9">
       <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>334</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F15" s="23">
         <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" customFormat="1" ht="100.8" spans="1:9">
       <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -7012,29 +7039,29 @@
         <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" customFormat="1" ht="72" spans="1:9">
       <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>262</v>
       </c>
       <c r="H17" s="3"/>
@@ -7042,23 +7069,23 @@
     </row>
     <row r="18" customFormat="1" ht="28.8" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -7066,16 +7093,16 @@
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -7083,16 +7110,16 @@
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="13"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -7100,16 +7127,16 @@
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="13"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -7117,16 +7144,16 @@
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="13"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -7134,16 +7161,16 @@
     <row r="23" customFormat="1" spans="1:9">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -7151,16 +7178,16 @@
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -7192,8 +7219,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E2:E10"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7240,13 +7267,13 @@
     </row>
     <row r="2" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
@@ -7260,20 +7287,20 @@
     <row r="3" customFormat="1" ht="158.4" spans="1:9">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -7281,19 +7308,19 @@
     <row r="4" customFormat="1" ht="72" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="3"/>
@@ -7302,66 +7329,66 @@
     <row r="5" customFormat="1" ht="43.2" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="6"/>
       <c r="G5" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" customFormat="1" ht="100.8" spans="1:9">
       <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>350</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -7369,16 +7396,16 @@
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="13"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7386,16 +7413,16 @@
     <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="13"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7403,16 +7430,16 @@
     <row r="10" customFormat="1" spans="1:9">
       <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7439,7 +7466,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7486,19 +7513,19 @@
     </row>
     <row r="2" customFormat="1" ht="158.4" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -7508,20 +7535,20 @@
     <row r="3" customFormat="1" ht="216" spans="1:9">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -7529,19 +7556,19 @@
     <row r="4" customFormat="1" ht="72" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="3"/>
@@ -7550,76 +7577,76 @@
     <row r="5" customFormat="1" ht="28.8" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="216" spans="1:9">
+    <row r="6" customFormat="1" ht="43.2" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="216" spans="1:9">
+    <row r="7" customFormat="1" ht="43.2" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="21"/>
       <c r="D7" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" customFormat="1" ht="216" spans="1:9">
+    <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="216" spans="1:9">
+    <row r="9" customFormat="1" ht="28.8" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="21"/>
@@ -7627,16 +7654,16 @@
         <v>252</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" customFormat="1" ht="216" spans="1:9">
+    <row r="10" customFormat="1" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="21"/>
@@ -7644,84 +7671,84 @@
         <v>248</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="18" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" customFormat="1" ht="216" spans="1:9">
+    <row r="11" customFormat="1" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" customFormat="1" ht="216" spans="1:9">
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="21"/>
       <c r="D12" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" customFormat="1" ht="216" spans="1:9">
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="43" t="s">
-        <v>326</v>
+      <c r="G13" s="42" t="s">
+        <v>328</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="216" spans="1:9">
+    <row r="14" customFormat="1" spans="1:9">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="43" t="s">
-        <v>329</v>
+      <c r="G14" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="216" spans="1:9">
+    <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="22"/>
@@ -7733,99 +7760,99 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="43.2" spans="1:9">
       <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="6"/>
       <c r="G16" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" customFormat="1" ht="100.8" spans="1:9">
       <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>350</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -7833,16 +7860,16 @@
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="13"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -7850,16 +7877,16 @@
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -7889,8 +7916,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E2:E30"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7937,19 +7964,19 @@
     </row>
     <row r="2" customFormat="1" ht="158.4" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -7959,20 +7986,20 @@
     <row r="3" customFormat="1" ht="216" spans="1:9">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -7980,19 +8007,19 @@
     <row r="4" customFormat="1" ht="100.8" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="3"/>
@@ -8001,16 +8028,16 @@
     <row r="5" customFormat="1" ht="28.8" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -8018,120 +8045,120 @@
     <row r="6" customFormat="1" ht="43.2" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="6"/>
       <c r="G6" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="1" ht="100.8" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="216" spans="1:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="43" t="s">
-        <v>380</v>
+      <c r="G8" s="42" t="s">
+        <v>383</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="216" spans="1:9">
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="43" t="s">
-        <v>383</v>
+      <c r="G9" s="42" t="s">
+        <v>386</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" customFormat="1" ht="216" spans="1:9">
+    <row r="10" customFormat="1" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="43" t="s">
-        <v>386</v>
+      <c r="G10" s="42" t="s">
+        <v>389</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" customFormat="1" ht="216" spans="1:9">
+    <row r="11" customFormat="1" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="43" t="s">
-        <v>389</v>
+      <c r="G11" s="42" t="s">
+        <v>392</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" customFormat="1" ht="216" spans="1:9">
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="13"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21"/>
@@ -8139,28 +8166,28 @@
         <v>164</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="43" t="s">
-        <v>330</v>
+      <c r="G12" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="216" spans="1:9">
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -8169,15 +8196,15 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="216" spans="1:9">
+    <row r="14" customFormat="1" ht="28.8" spans="1:9">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -8186,15 +8213,15 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="216" spans="1:9">
+    <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -8203,7 +8230,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="216" spans="1:9">
+    <row r="16" customFormat="1" spans="1:9">
       <c r="A16" s="13"/>
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
@@ -8211,7 +8238,7 @@
         <v>164</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
@@ -8222,144 +8249,144 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="244.8" spans="1:9">
+    <row r="17" customFormat="1" ht="28.8" spans="1:9">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="244.8" spans="1:9">
+    <row r="18" customFormat="1" ht="43.2" spans="1:9">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>2</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="244.8" spans="1:9">
+    <row r="19" customFormat="1" ht="28.8" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
         <v>3</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="244.8" spans="1:9">
+    <row r="20" customFormat="1" ht="28.8" spans="1:9">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" customFormat="1" ht="244.8" spans="1:9">
+    <row r="21" customFormat="1" ht="28.8" spans="1:9">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <v>5</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" customFormat="1" ht="244.8" spans="1:9">
+    <row r="22" customFormat="1" ht="28.8" spans="1:9">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="21"/>
       <c r="D22" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>6</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" customFormat="1" ht="244.8" spans="1:9">
+    <row r="23" customFormat="1" ht="28.8" spans="1:9">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
         <v>7</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" customFormat="1" ht="244.8" spans="1:9">
+    <row r="24" customFormat="1" ht="144" spans="1:9">
       <c r="A24" s="13"/>
       <c r="B24" s="17"/>
       <c r="C24" s="22"/>
@@ -8372,7 +8399,7 @@
         <v>166</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>257</v>
@@ -8381,16 +8408,16 @@
     <row r="25" customFormat="1" spans="1:9">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -8400,35 +8427,35 @@
     <row r="26" customFormat="1" ht="100.8" spans="1:9">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>338</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="43.2" spans="1:9">
       <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="22"/>
@@ -8437,31 +8464,31 @@
         <v>22</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>350</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -8469,16 +8496,16 @@
     <row r="29" customFormat="1" spans="1:9">
       <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -8486,16 +8513,16 @@
     <row r="30" customFormat="1" spans="1:9">
       <c r="A30" s="17"/>
       <c r="B30" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8544,10 +8571,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -8574,46 +8601,46 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" ht="24" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" ht="24" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" ht="24" spans="2:4">
@@ -8621,10 +8648,10 @@
         <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -8632,7 +8659,7 @@
         <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>183</v>
@@ -8643,21 +8670,21 @@
         <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" ht="24" spans="2:4">
@@ -8665,10 +8692,10 @@
         <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" ht="24" spans="2:4">
@@ -8676,32 +8703,32 @@
         <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" ht="24" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="2:4">

--- a/libs/一体化温度变送器语义库.xlsx
+++ b/libs/一体化温度变送器语义库.xlsx
@@ -542,7 +542,7 @@
     <t>304 SST或ASTM304L 2B 水平管道安装用</t>
   </si>
   <si>
-    <t>支架安装,2"管装,2“钢管,2''管安装,有,304水平安装支架, 2"横管安装 不锈钢材质, 2"横管安装,支架材质304SS,2″管装平板支架,带2"管支架及U型栓,带，304SS,YES</t>
+    <t>支架安装,2"管装支架,2“钢管,2''管安装,有,304水平安装支架, 2"横管安装 不锈钢材质, 2"横管安装,支架材质304SS,2″管装平板支架,带2"管支架及U型栓,带，304SS,YES</t>
   </si>
   <si>
     <t>304 SST或ASTM304L 2B 垂直管道安装用</t>
@@ -1146,7 +1146,7 @@
     <t>/N1</t>
   </si>
   <si>
-    <t>需一体化温度变送器与变送器NEPSI选项为NF2同时生效，且实际参数名称可能为英语</t>
+    <t>**注意：需一体化温度变送器与变送器NEPSI选项为NF2同时生效，且实际参数名称可能为英语</t>
   </si>
   <si>
     <t>一体化温度变送器本安证书</t>
@@ -1155,7 +1155,7 @@
     <t>/N2</t>
   </si>
   <si>
-    <t>需一体化温度变送器与变送器NEPSI选项为NS2或NS25同时生效，且实际参数名称可能为英语</t>
+    <t>**注意：需一体化温度变送器与变送器NEPSI选项为NS2或NS25同时生效，且实际参数名称可能为英语</t>
   </si>
   <si>
     <t>接线盒</t>
@@ -2597,7 +2597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2687,15 +2687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3055,10 +3046,10 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E34"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3200,7 +3191,7 @@
       <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3220,7 +3211,7 @@
       <c r="G7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
@@ -3230,10 +3221,10 @@
       <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="32" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -3250,7 +3241,7 @@
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -3309,7 +3300,7 @@
       <c r="C12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3493,7 +3484,7 @@
       <c r="C22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="32" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -3511,7 +3502,7 @@
       <c r="C23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="32" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -3525,7 +3516,7 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="32" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -3539,7 +3530,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -3553,7 +3544,7 @@
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="32" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -3567,7 +3558,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="32" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -3585,7 +3576,7 @@
       <c r="C28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="32" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="21"/>
@@ -3599,7 +3590,7 @@
       <c r="C29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="32" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="21"/>
@@ -3611,7 +3602,7 @@
       <c r="A30" s="13"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="32" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="22"/>
@@ -3645,7 +3636,7 @@
       <c r="C32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="32" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3659,7 +3650,7 @@
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="32" t="s">
         <v>120</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -3733,8 +3724,8 @@
   <sheetPr/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4038,7 +4029,7 @@
       <c r="C13" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="30" t="s">
         <v>170</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -4242,7 +4233,7 @@
       <c r="D22" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="30" t="s">
         <v>198</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -4458,7 +4449,7 @@
       <c r="F32" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="31" t="s">
         <v>166</v>
       </c>
       <c r="H32" s="3"/>
@@ -4476,10 +4467,10 @@
       <c r="C33" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="33" t="s">
         <v>217</v>
       </c>
       <c r="F33" s="5">
@@ -4805,7 +4796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="43.2" spans="1:9">
+    <row r="48" customFormat="1" ht="115.2" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>127</v>
       </c>
@@ -4978,7 +4969,7 @@
       <c r="D55" s="17"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="37"/>
+      <c r="C72" s="34"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I54" etc:filterBottomFollowUsedRange="0">
@@ -5016,7 +5007,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -5313,7 +5304,7 @@
       <c r="E13" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -5334,7 +5325,7 @@
       <c r="E14" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -5355,7 +5346,7 @@
       <c r="E15" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -5376,7 +5367,7 @@
       <c r="E16" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -5397,7 +5388,7 @@
       <c r="E17" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -5418,7 +5409,7 @@
       <c r="E18" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -5439,7 +5430,7 @@
       <c r="E19" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -5460,10 +5451,10 @@
       <c r="E20" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="39" t="s">
         <v>328</v>
       </c>
       <c r="H20" s="3"/>
@@ -5481,10 +5472,10 @@
       <c r="E21" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="39" t="s">
         <v>331</v>
       </c>
       <c r="H21" s="3"/>
@@ -5500,7 +5491,7 @@
       <c r="E22" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="38" t="s">
         <v>308</v>
       </c>
       <c r="G22" s="18" t="s">
@@ -5586,7 +5577,7 @@
       <c r="E26" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="39" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5630,7 +5621,7 @@
       <c r="G28" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="12" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5647,7 +5638,7 @@
       <c r="G29" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="13"/>
@@ -5662,7 +5653,7 @@
       <c r="G30" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="13"/>
@@ -5677,7 +5668,7 @@
       <c r="G31" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="13"/>
@@ -5692,7 +5683,7 @@
       <c r="G32" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="13"/>
@@ -5707,7 +5698,7 @@
       <c r="G33" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="17"/>
@@ -5722,7 +5713,7 @@
       <c r="G34" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="I34" s="32"/>
+      <c r="I34" s="17"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I34" etc:filterBottomFollowUsedRange="0">
@@ -5757,7 +5748,7 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="E40" sqref="E40:E46"/>
     </sheetView>
   </sheetViews>
@@ -6033,7 +6024,7 @@
         <v>382</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="39" t="s">
         <v>383</v>
       </c>
       <c r="H13" s="3"/>
@@ -6050,7 +6041,7 @@
         <v>385</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>386</v>
       </c>
       <c r="H14" s="3"/>
@@ -6067,7 +6058,7 @@
         <v>388</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="39" t="s">
         <v>389</v>
       </c>
       <c r="H15" s="3"/>
@@ -6084,7 +6075,7 @@
         <v>391</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="39" t="s">
         <v>392</v>
       </c>
       <c r="H16" s="3"/>
@@ -6101,7 +6092,7 @@
         <v>393</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="39" t="s">
         <v>332</v>
       </c>
       <c r="H17" s="3"/>
@@ -6468,7 +6459,7 @@
         <v>348</v>
       </c>
       <c r="F36" s="28"/>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="39" t="s">
         <v>262</v>
       </c>
       <c r="H36" s="3"/>
@@ -6510,7 +6501,7 @@
         <v>340</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="39" t="s">
         <v>439</v>
       </c>
       <c r="H38" s="11" t="s">
@@ -6529,7 +6520,7 @@
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="29"/>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="39" t="s">
         <v>439</v>
       </c>
       <c r="H39" s="11" t="s">
@@ -7061,7 +7052,7 @@
         <v>446</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="39" t="s">
         <v>262</v>
       </c>
       <c r="H17" s="3"/>
@@ -7320,7 +7311,7 @@
         <v>454</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="39" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="3"/>
@@ -7568,7 +7559,7 @@
         <v>446</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="39" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="3"/>
@@ -7725,7 +7716,7 @@
         <v>327</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="39" t="s">
         <v>328</v>
       </c>
       <c r="H13" s="3"/>
@@ -7742,7 +7733,7 @@
         <v>330</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>331</v>
       </c>
       <c r="H14" s="3"/>
@@ -8019,7 +8010,7 @@
         <v>446</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="39" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="3"/>
@@ -8101,7 +8092,7 @@
         <v>382</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="39" t="s">
         <v>383</v>
       </c>
       <c r="H8" s="3"/>
@@ -8118,7 +8109,7 @@
         <v>385</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="39" t="s">
         <v>386</v>
       </c>
       <c r="H9" s="3"/>
@@ -8135,7 +8126,7 @@
         <v>388</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="39" t="s">
         <v>389</v>
       </c>
       <c r="H10" s="3"/>
@@ -8152,7 +8143,7 @@
         <v>391</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="39" t="s">
         <v>392</v>
       </c>
       <c r="H11" s="3"/>
@@ -8169,7 +8160,7 @@
         <v>393</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="39" t="s">
         <v>332</v>
       </c>
       <c r="H12" s="3"/>

--- a/libs/一体化温度变送器语义库.xlsx
+++ b/libs/一体化温度变送器语义库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="511"/>
+    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="511" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变送器部分" sheetId="2" r:id="rId1"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="502">
   <si>
     <t>元器件部位</t>
   </si>
@@ -635,7 +635,7 @@
     <t>高防腐涂层</t>
   </si>
   <si>
-    <t>环氧漆；防腐涂层</t>
+    <t>环氧漆；防腐涂层；满足海边盐雾腐蚀涂层C5防腐</t>
   </si>
   <si>
     <t>/X2</t>
@@ -1063,7 +1063,7 @@
     <t>连接螺纹</t>
   </si>
   <si>
-    <t>传感器螺纹;连接规格；Connection Specification；螺纹规格；过程连接尺寸；连接方式；Connection Type；安装形式； MOUNTING STYLE；测温元件与保护套管连接方式；过程连接； Process Connection；过程连接形式；Process Conn；螺纹接口尺寸；Thread Size；安装固定方式；MOUNTING STYLE；连接尺寸；Connection Size；连接规格 Conn. Size &amp; Rating；与温度计套管连接；Conn. With TW；固定装置；过程连接螺纹；与温度计套管连接形式；Connection with TW；Stem Connection with Thermowell；插杆与外保护套管连接；过程连接形式；Process Connection Type；过程连接规格；PROCESS CONN. SIZE；过程接口；Conn. w/TW 与温度计套管连接；过程连接形式及等级；Process Conn. Style &amp;Rating；元件连接尺寸；Internal Conn. Size；Temp.Element Conn. Size；温度元件接头尺寸；接类型及尺寸；Connection Type and Size；保护管连接形式 STEM CONN. TYPE；与外套管连接；CONNECTED WITH THERMOWELL；元件与套管螺纹连接规格；Thread Size；温度元件接头尺寸；Temperature Element Connection Size；元件与保护管连接；测温元件连接尺寸；</t>
+    <t>传感器螺纹;过程连接形式 Process Conn.；连接规格；Connection Specification；螺纹规格；过程连接尺寸；连接方式；Connection Type；安装形式； MOUNTING STYLE；测温元件与保护套管连接方式；过程连接； Process Connection；过程连接形式；Process Conn；螺纹接口尺寸；Thread Size；安装固定方式；MOUNTING STYLE；连接尺寸；Connection Size；连接规格 Conn. Size &amp; Rating；与温度计套管连接；Conn. With TW；固定装置；过程连接螺纹；与温度计套管连接形式；Connection with TW；Stem Connection with Thermowell；插杆与外保护套管连接；过程连接形式；Process Connection Type；过程连接规格；PROCESS CONN. SIZE；过程接口；Conn. w/TW 与温度计套管连接；过程连接形式及等级；Process Conn. Style &amp;Rating；元件连接尺寸；Internal Conn. Size；Temp.Element Conn. Size；温度元件接头尺寸；接类型及尺寸；Connection Type and Size；保护管连接形式 STEM CONN. TYPE；与外套管连接；CONNECTED WITH THERMOWELL；元件与套管螺纹连接规格；Thread Size；温度元件接头尺寸；Temperature Element Connection Size；元件与保护管连接；测温元件连接尺寸；</t>
   </si>
   <si>
     <t>无；NA.</t>
@@ -1507,6 +1507,9 @@
     <t>TG-L</t>
   </si>
   <si>
+    <t>Tapered Type；Solid hole, tapered；Tapered from drilled barstock；整体钻孔锥型；Tapered；单端钻孔锥型套管；法兰连接整体锥型钻孔；法兰式锥形整体钻孔外套管；钢棒整体钻孔锥形套管；固定法兰式整体钻孔锥形保护套管；固定法兰锥形整体钻孔式；加强型锥型整体钻孔；锥形；一体化整体钻孔锥形法兰套管；整体锥形套管；整体锥形钻孔；整体钻孔式的锥形套管；整体钻孔锥形；整体钻孔锥形保护管；整体钻孔锥形管；整体钻孔锥形套管；整钻锥形；锥形整体钻孔；锥形整体钻孔式套管；整体钻孔保护管；全透焊整体钻孔锥形法兰套管</t>
+  </si>
+  <si>
     <t>TG-K</t>
   </si>
   <si>
@@ -1694,6 +1697,9 @@
   </si>
   <si>
     <t>-□□</t>
+  </si>
+  <si>
+    <t>直接使用用户提供的数值</t>
   </si>
   <si>
     <t>焊接安装保护管</t>
@@ -3046,10 +3052,10 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3682,7 +3688,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I34" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="A4:A21"/>
     <mergeCell ref="A22:A34"/>
     <mergeCell ref="B2:B3"/>
@@ -3708,7 +3714,6 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E27:E30"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="I6:I7"/>
   </mergeCells>
@@ -3724,8 +3729,8 @@
   <sheetPr/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5007,8 +5012,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5719,7 +5724,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I34" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="B3:B5"/>
@@ -5728,7 +5733,6 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="E22:E23"/>
@@ -5748,8 +5752,8 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E46"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5844,11 +5848,11 @@
         <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -5865,7 +5869,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -6012,20 +6016,20 @@
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="39" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -6035,14 +6039,14 @@
       <c r="B14" s="13"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -6052,14 +6056,14 @@
       <c r="B15" s="13"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="39" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -6069,14 +6073,14 @@
       <c r="B16" s="13"/>
       <c r="C16" s="21"/>
       <c r="D16" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -6089,7 +6093,7 @@
         <v>164</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="39" t="s">
@@ -6103,14 +6107,14 @@
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="5">
@@ -6124,10 +6128,10 @@
       <c r="B19" s="13"/>
       <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="5">
@@ -6141,10 +6145,10 @@
       <c r="B20" s="13"/>
       <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="5">
@@ -6175,23 +6179,23 @@
     <row r="22" customFormat="1" ht="28.8" spans="1:9">
       <c r="A22" s="13"/>
       <c r="B22" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="5">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -6200,17 +6204,17 @@
       <c r="B23" s="13"/>
       <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -6219,17 +6223,17 @@
       <c r="B24" s="13"/>
       <c r="C24" s="21"/>
       <c r="D24" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -6238,17 +6242,17 @@
       <c r="B25" s="13"/>
       <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="5">
         <v>4</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -6257,17 +6261,17 @@
       <c r="B26" s="13"/>
       <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="5">
         <v>5</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -6276,17 +6280,17 @@
       <c r="B27" s="13"/>
       <c r="C27" s="21"/>
       <c r="D27" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="5">
         <v>6</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -6295,17 +6299,17 @@
       <c r="B28" s="13"/>
       <c r="C28" s="21"/>
       <c r="D28" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="5">
         <v>7</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -6314,17 +6318,17 @@
       <c r="B29" s="13"/>
       <c r="C29" s="21"/>
       <c r="D29" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="5">
         <v>8</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -6333,17 +6337,17 @@
       <c r="B30" s="13"/>
       <c r="C30" s="21"/>
       <c r="D30" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="5">
         <v>9</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -6352,17 +6356,17 @@
       <c r="B31" s="13"/>
       <c r="C31" s="21"/>
       <c r="D31" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="5">
         <v>10</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -6371,17 +6375,17 @@
       <c r="B32" s="13"/>
       <c r="C32" s="21"/>
       <c r="D32" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="5">
         <v>11</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -6398,7 +6402,7 @@
         <v>166</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>257</v>
@@ -6407,16 +6411,16 @@
     <row r="34" customFormat="1" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="5"/>
@@ -6426,15 +6430,15 @@
     <row r="35" customFormat="1" ht="57.6" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>336</v>
@@ -6450,7 +6454,7 @@
         <v>346</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>165</v>
@@ -6468,7 +6472,7 @@
     <row r="37" customFormat="1" ht="43.2" spans="1:9">
       <c r="A37" s="13"/>
       <c r="B37" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>335</v>
@@ -6476,7 +6480,7 @@
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>336</v>
@@ -6502,12 +6506,14 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="H38" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H38" t="s">
+        <v>441</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="I38" s="3"/>
     </row>
     <row r="39" customFormat="1" ht="100.8" spans="1:9">
       <c r="A39" s="17"/>
@@ -6521,12 +6527,11 @@
       <c r="E39" s="17"/>
       <c r="F39" s="29"/>
       <c r="G39" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="H39" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="I39" s="3"/>
     </row>
     <row r="40" customFormat="1" ht="28.8" spans="1:9">
       <c r="A40" s="12" t="s">
@@ -6657,7 +6662,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I46" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="23">
+  <mergeCells count="15">
     <mergeCell ref="A2:A39"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="B3:B5"/>
@@ -6669,18 +6674,10 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="C22:C33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="E40:E46"/>
-    <mergeCell ref="F2:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F46"/>
+    <mergeCell ref="H38:H39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6742,19 +6739,19 @@
     </row>
     <row r="2" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -6952,14 +6949,14 @@
     <row r="13" customFormat="1" ht="54" customHeight="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F13" s="6">
         <v>50</v>
@@ -6968,7 +6965,7 @@
         <v>262</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -7043,13 +7040,13 @@
         <v>346</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="39" t="s">
@@ -7104,7 +7101,7 @@
         <v>358</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="13"/>
@@ -7210,7 +7207,7 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
@@ -7258,7 +7255,7 @@
     </row>
     <row r="2" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>287</v>
@@ -7284,14 +7281,14 @@
         <v>292</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -7302,13 +7299,13 @@
         <v>346</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="39" t="s">
@@ -7339,20 +7336,20 @@
     <row r="6" customFormat="1" ht="100.8" spans="1:9">
       <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>345</v>
@@ -7504,7 +7501,7 @@
     </row>
     <row r="2" customFormat="1" ht="158.4" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>291</v>
@@ -7513,10 +7510,10 @@
         <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -7539,7 +7536,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -7550,13 +7547,13 @@
         <v>346</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="39" t="s">
@@ -7568,16 +7565,16 @@
     <row r="5" customFormat="1" ht="28.8" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7585,7 +7582,7 @@
     <row r="6" customFormat="1" ht="43.2" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>288</v>
@@ -7780,20 +7777,20 @@
     <row r="17" customFormat="1" ht="100.8" spans="1:9">
       <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>345</v>
@@ -7839,7 +7836,7 @@
         <v>352</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
@@ -7955,7 +7952,7 @@
     </row>
     <row r="2" customFormat="1" ht="158.4" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>291</v>
@@ -7964,10 +7961,10 @@
         <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -7990,7 +7987,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8001,13 +7998,13 @@
         <v>346</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="39" t="s">
@@ -8019,16 +8016,16 @@
     <row r="5" customFormat="1" ht="28.8" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -8055,20 +8052,20 @@
     <row r="7" customFormat="1" ht="100.8" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>345</v>
@@ -8080,20 +8077,20 @@
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="39" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -8103,14 +8100,14 @@
       <c r="B9" s="13"/>
       <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -8120,14 +8117,14 @@
       <c r="B10" s="13"/>
       <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="39" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -8137,14 +8134,14 @@
       <c r="B11" s="13"/>
       <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8157,7 +8154,7 @@
         <v>164</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="39" t="s">
@@ -8171,14 +8168,14 @@
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -8192,10 +8189,10 @@
       <c r="B14" s="13"/>
       <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -8209,10 +8206,10 @@
       <c r="B15" s="13"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -8243,23 +8240,23 @@
     <row r="17" customFormat="1" ht="28.8" spans="1:9">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -8268,17 +8265,17 @@
       <c r="B18" s="13"/>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>2</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -8287,17 +8284,17 @@
       <c r="B19" s="13"/>
       <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
         <v>3</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -8306,17 +8303,17 @@
       <c r="B20" s="13"/>
       <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -8325,17 +8322,17 @@
       <c r="B21" s="13"/>
       <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <v>5</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -8344,17 +8341,17 @@
       <c r="B22" s="13"/>
       <c r="C22" s="21"/>
       <c r="D22" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>6</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -8363,17 +8360,17 @@
       <c r="B23" s="13"/>
       <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
         <v>7</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -8390,7 +8387,7 @@
         <v>166</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>257</v>
@@ -8399,16 +8396,16 @@
     <row r="25" customFormat="1" spans="1:9">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -8431,7 +8428,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>345</v>
@@ -8562,10 +8559,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -8592,46 +8589,46 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" ht="24" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" ht="24" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" ht="24" spans="2:4">
@@ -8639,10 +8636,10 @@
         <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -8650,7 +8647,7 @@
         <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>183</v>
@@ -8661,21 +8658,21 @@
         <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" ht="24" spans="2:4">
@@ -8683,10 +8680,10 @@
         <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" ht="24" spans="2:4">
@@ -8694,32 +8691,32 @@
         <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" ht="24" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="2:4">
